--- a/user stories.xlsx
+++ b/user stories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>USER STORIES</t>
   </si>
@@ -41,9 +41,6 @@
     <t>As user I can log into my account so that I can access my github account.</t>
   </si>
   <si>
-    <t>Scheduling(in days)</t>
-  </si>
-  <si>
     <t>As user I can sign up as a new user for github.</t>
   </si>
   <si>
@@ -93,6 +90,30 @@
   </si>
   <si>
     <t>Date of submission : 21/02/2018</t>
+  </si>
+  <si>
+    <t>Acceptance criteria</t>
+  </si>
+  <si>
+    <t>User must be able to create repositary of any size of folder</t>
+  </si>
+  <si>
+    <t>User must be able to download project as many as he want</t>
+  </si>
+  <si>
+    <t>User can also check the change made by which user</t>
+  </si>
+  <si>
+    <t>User can also perform advance search</t>
+  </si>
+  <si>
+    <t>User can star project as many as he want</t>
+  </si>
+  <si>
+    <t>User can create number of branch as many as user wants</t>
+  </si>
+  <si>
+    <t>Scheduling(in hours)</t>
   </si>
 </sst>
 </file>
@@ -471,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +501,9 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="37.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" style="4" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="24.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -495,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -506,10 +529,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -517,13 +543,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -534,24 +560,27 @@
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -559,13 +588,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -573,13 +605,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -587,18 +622,21 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -606,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -617,10 +655,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -628,10 +669,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -639,10 +680,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -650,10 +694,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -661,10 +705,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/user stories.xlsx
+++ b/user stories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>USER STORIES</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Scheduling(in hours)</t>
+  </si>
+  <si>
+    <t>No.of screen</t>
+  </si>
+  <si>
+    <t>User stories id</t>
   </si>
 </sst>
 </file>
@@ -490,224 +496,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="37.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="24.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="24.140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="20.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
         <v>6</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
